--- a/src/test/resources/Exploratory Tests - Claims.xlsx
+++ b/src/test/resources/Exploratory Tests - Claims.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stephen.knight\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruce.wallace\IdeaProjects\claimcenter-automation\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="66">
   <si>
     <t>Template</t>
   </si>
@@ -266,6 +266,18 @@
   </si>
   <si>
     <t>To ensure any large field value contents on policy are reflect in claims and do not cause problems on claims.</t>
+  </si>
+  <si>
+    <t>Exploratory test of changing data between policy and claims center pre FNOL</t>
+  </si>
+  <si>
+    <t>To ensure that any details related to a policy that are changed in policy center are then updated in claims center before/during FNOL</t>
+  </si>
+  <si>
+    <t>To ensure that any details related to a policy that are changed in policy center are then updated in claims center when a claim has already been generated.</t>
+  </si>
+  <si>
+    <t>Exploratory test of changing data between policy and claims center post FNOL</t>
   </si>
 </sst>
 </file>
@@ -663,8 +675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1013,7 +1025,7 @@
       <c r="J14" s="2"/>
       <c r="K14" s="3"/>
     </row>
-    <row r="15" spans="2:11" ht="25" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" ht="37.5" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>6</v>
       </c>
@@ -1028,12 +1040,16 @@
         <v>23</v>
       </c>
       <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
+      <c r="H15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="J15" s="2"/>
       <c r="K15" s="3"/>
     </row>
-    <row r="16" spans="2:11" ht="25" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" ht="37.5" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>6</v>
       </c>
@@ -1048,8 +1064,12 @@
         <v>24</v>
       </c>
       <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
+      <c r="H16" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="J16" s="2"/>
       <c r="K16" s="3"/>
     </row>
